--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H2">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>2979.696281978174</v>
+        <v>4420.463161801968</v>
       </c>
       <c r="R2">
-        <v>2979.696281978174</v>
+        <v>39784.16845621771</v>
       </c>
       <c r="S2">
-        <v>0.1751237716657073</v>
+        <v>0.2070776240207434</v>
       </c>
       <c r="T2">
-        <v>0.1751237716657073</v>
+        <v>0.2070776240207434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H3">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>2998.299730386063</v>
+        <v>4176.917717667314</v>
       </c>
       <c r="R3">
-        <v>2998.299730386063</v>
+        <v>37592.25945900583</v>
       </c>
       <c r="S3">
-        <v>0.1762171401646656</v>
+        <v>0.1956686810963277</v>
       </c>
       <c r="T3">
-        <v>0.1762171401646656</v>
+        <v>0.1956686810963277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H4">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>3497.819428718165</v>
+        <v>4898.926778290604</v>
       </c>
       <c r="R4">
-        <v>3497.819428718165</v>
+        <v>44090.34100461545</v>
       </c>
       <c r="S4">
-        <v>0.2055750898732711</v>
+        <v>0.229491363318245</v>
       </c>
       <c r="T4">
-        <v>0.2055750898732711</v>
+        <v>0.229491363318245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>2033.050700616668</v>
+        <v>2176.490896137936</v>
       </c>
       <c r="R5">
-        <v>2033.050700616668</v>
+        <v>19588.41806524142</v>
       </c>
       <c r="S5">
-        <v>0.1194871802314138</v>
+        <v>0.1019582217921474</v>
       </c>
       <c r="T5">
-        <v>0.1194871802314138</v>
+        <v>0.1019582217921474</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>2045.743857985861</v>
+        <v>2056.577117297878</v>
       </c>
       <c r="R6">
-        <v>2045.743857985861</v>
+        <v>18509.1940556809</v>
       </c>
       <c r="S6">
-        <v>0.12023318699938</v>
+        <v>0.09634083295739335</v>
       </c>
       <c r="T6">
-        <v>0.12023318699938</v>
+        <v>0.09634083295739335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>2386.566806555538</v>
+        <v>2412.07066850646</v>
       </c>
       <c r="R7">
-        <v>2386.566806555538</v>
+        <v>21708.63601655814</v>
       </c>
       <c r="S7">
-        <v>0.1402641547811448</v>
+        <v>0.112994010971654</v>
       </c>
       <c r="T7">
-        <v>0.1402641547811448</v>
+        <v>0.112994010971654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H8">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>337.6043681709467</v>
+        <v>394.82036882256</v>
       </c>
       <c r="R8">
-        <v>337.6043681709467</v>
+        <v>3553.38331940304</v>
       </c>
       <c r="S8">
-        <v>0.01984180422766569</v>
+        <v>0.01849545192396561</v>
       </c>
       <c r="T8">
-        <v>0.01984180422766569</v>
+        <v>0.01849545192396561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H9">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>339.7121687154294</v>
+        <v>373.0677382590467</v>
       </c>
       <c r="R9">
-        <v>339.7121687154294</v>
+        <v>3357.60964433142</v>
       </c>
       <c r="S9">
-        <v>0.01996568463235706</v>
+        <v>0.01747644489044536</v>
       </c>
       <c r="T9">
-        <v>0.01996568463235706</v>
+        <v>0.01747644489044537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H10">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>396.3085517643734</v>
+        <v>437.555072091349</v>
       </c>
       <c r="R10">
-        <v>396.3085517643734</v>
+        <v>3937.995648822141</v>
       </c>
       <c r="S10">
-        <v>0.0232919874243947</v>
+        <v>0.02049736902907839</v>
       </c>
       <c r="T10">
-        <v>0.0232919874243947</v>
+        <v>0.02049736902907839</v>
       </c>
     </row>
   </sheetData>
